--- a/resources/format/정통대대학원논문심사_학생_일괄등록_양식.xlsx
+++ b/resources/format/정통대대학원논문심사_학생_일괄등록_양식.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hynseok/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yesjuhee/Dev/SCG/real-ice-gs-thesis-backend/resources/format/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE597E4-B337-8047-9249-425DAC10807F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEF248A-AED9-4A40-88AB-7D1E40C18BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="7600" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>비밀번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>01099999999</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>참고 (등록 시 참고 내용은 전부 삭제해주세요)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -111,22 +107,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>해당 학생의 지도교수로 배정될 교수들의 한글 이름을 입력해주세요.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>다교수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>지도 교수1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>김교수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>심사위원1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -140,6 +124,18 @@
   </si>
   <si>
     <t>심사위원장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-9999-9999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000-0000-0000 형식으로 입력해주세요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 학생의 지도교수로 배정될 교수들의 내선번호를 입력해주세요.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -559,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -599,25 +595,25 @@
         <v>4</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="M1" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="18" thickTop="1">
@@ -631,39 +627,37 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="I2" s="9">
+        <v>1111</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2">
+        <v>2222</v>
+      </c>
+      <c r="L2">
+        <v>3333</v>
+      </c>
+      <c r="M2">
+        <v>4444</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="O8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S8" s="2"/>
     </row>
@@ -672,38 +666,44 @@
         <v>4</v>
       </c>
       <c r="P9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S9" s="2"/>
     </row>
     <row r="10" spans="1:19">
       <c r="O10" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" t="s">
         <v>19</v>
-      </c>
-      <c r="P10" t="s">
-        <v>20</v>
       </c>
       <c r="S10" s="2"/>
     </row>
     <row r="11" spans="1:19">
       <c r="O11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S11" s="2"/>
     </row>
     <row r="12" spans="1:19">
       <c r="O12" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="P12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="S12" s="2"/>
     </row>
     <row r="13" spans="1:19">
+      <c r="O13" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" t="s">
+        <v>15</v>
+      </c>
       <c r="S13" s="2"/>
     </row>
     <row r="14" spans="1:19">
